--- a/game_map.xlsx
+++ b/game_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Library/CloudStorage/Dropbox/GitHub/2024/HorseSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAE7D39-CB52-D84B-93C4-D91DA1543D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E031EEC-3301-DA46-BC06-F3167E5990C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{50E3375C-3566-2740-A63D-0A9A97A27037}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Beach</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Island</t>
   </si>
   <si>
-    <t>Town</t>
-  </si>
-  <si>
     <t>Observatory</t>
   </si>
   <si>
@@ -67,12 +64,6 @@
     <t>Hermitage</t>
   </si>
   <si>
-    <t>Apartment</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
     <t>Casino</t>
   </si>
   <si>
@@ -107,6 +98,45 @@
   </si>
   <si>
     <t>Bus station</t>
+  </si>
+  <si>
+    <t>Hillside caves</t>
+  </si>
+  <si>
+    <t>Unspoken Hills</t>
+  </si>
+  <si>
+    <t>Transport Center</t>
+  </si>
+  <si>
+    <t>Lonesome Path</t>
+  </si>
+  <si>
+    <t>Devil's Tail</t>
+  </si>
+  <si>
+    <t>Camp grounds</t>
+  </si>
+  <si>
+    <t>Slime City Downtown</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Your Apartment</t>
+  </si>
+  <si>
+    <t>Apartments</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>General Store</t>
+  </si>
+  <si>
+    <t>Confectioner</t>
   </si>
 </sst>
 </file>
@@ -512,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697C68A8-C91A-644B-9BF9-8637FF4BB6DC}">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,18 +584,20 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L3" s="9">
         <v>0</v>
       </c>
@@ -575,20 +607,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L4" s="9">
         <v>1</v>
       </c>
@@ -597,23 +631,22 @@
       <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="L5" s="9">
         <v>2</v>
       </c>
@@ -624,27 +657,25 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L6" s="9">
         <v>3</v>
       </c>
@@ -655,21 +686,27 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L7" s="9">
         <v>4</v>
       </c>
@@ -683,18 +720,20 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="9">
         <v>5</v>
       </c>
@@ -704,15 +743,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9">
         <v>6</v>
@@ -724,27 +764,14 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="3"/>
+        <v>20</v>
+      </c>
       <c r="L10" s="9">
         <v>7</v>
       </c>
@@ -755,64 +782,132 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L11" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="7">
+    <row r="12" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E14" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F14" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G14" s="7">
         <v>4</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I14" s="7">
         <v>6</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J14" s="7">
         <v>7</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K14" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
